--- a/Shinyapp/Data/Employmentsterling.xlsx
+++ b/Shinyapp/Data/Employmentsterling.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{424B4F03-95FC-419B-9797-C1E60FD2DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E43BA1-8F57-406F-82FB-5F3D284F77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="475">
   <si>
     <t/>
   </si>
@@ -254,9 +254,6 @@
     <t>±1,025</t>
   </si>
   <si>
-    <t>12,922</t>
-  </si>
-  <si>
     <t>±941</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
     <t>±3.2</t>
   </si>
   <si>
-    <t>2,574</t>
-  </si>
-  <si>
     <t>±543</t>
   </si>
   <si>
@@ -350,9 +344,6 @@
     <t>Civilian employed population 16 years and over</t>
   </si>
   <si>
-    <t>Management, business, science, and arts occupations</t>
-  </si>
-  <si>
     <t>6,380</t>
   </si>
   <si>
@@ -365,9 +356,6 @@
     <t>±3.1</t>
   </si>
   <si>
-    <t>Service occupations</t>
-  </si>
-  <si>
     <t>4,122</t>
   </si>
   <si>
@@ -380,9 +368,6 @@
     <t>±2.8</t>
   </si>
   <si>
-    <t>Sales and office occupations</t>
-  </si>
-  <si>
     <t>3,451</t>
   </si>
   <si>
@@ -392,9 +377,6 @@
     <t>19.8%</t>
   </si>
   <si>
-    <t>Natural resources, construction, and maintenance occupations</t>
-  </si>
-  <si>
     <t>1,898</t>
   </si>
   <si>
@@ -404,9 +386,6 @@
     <t>10.9%</t>
   </si>
   <si>
-    <t>Production, transportation, and material moving occupations</t>
-  </si>
-  <si>
     <t>1,591</t>
   </si>
   <si>
@@ -1449,6 +1428,21 @@
   </si>
   <si>
     <t>Drove alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management, business, science, and arts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales and office </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural resources, construction, and maintenance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production, transportation, and material moving </t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1866,10 @@
   <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2230,115 +2224,115 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12922</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2574</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -2349,12 +2343,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -2371,97 +2365,97 @@
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
-        <v>120</v>
+        <v>472</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
-        <v>124</v>
+        <v>473</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
-        <v>128</v>
+        <v>474</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
@@ -2478,67 +2472,67 @@
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>36</v>
@@ -2546,16 +2540,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
@@ -2563,33 +2557,33 @@
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
@@ -2597,50 +2591,50 @@
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>16</v>
@@ -2648,16 +2642,16 @@
     </row>
     <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>21</v>
@@ -2665,16 +2659,16 @@
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>31</v>
@@ -2682,29 +2676,29 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -2721,89 +2715,89 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>11</v>
@@ -2811,50 +2805,50 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>31</v>
@@ -2862,16 +2856,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>43</v>
@@ -2879,115 +2873,115 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -2998,13 +2992,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -3015,16 +3009,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>21</v>
@@ -3032,13 +3026,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -3049,30 +3043,30 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -3083,30 +3077,30 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -3117,30 +3111,30 @@
     </row>
     <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -3151,30 +3145,30 @@
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
@@ -3185,16 +3179,16 @@
     </row>
     <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>26</v>
@@ -3202,16 +3196,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>11</v>
@@ -3219,84 +3213,84 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>21</v>
@@ -3304,50 +3298,50 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>50</v>
@@ -3355,47 +3349,47 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -3406,13 +3400,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
@@ -3423,13 +3417,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -3440,16 +3434,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>11</v>
@@ -3457,13 +3451,13 @@
     </row>
     <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -3474,13 +3468,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -3491,13 +3485,13 @@
     </row>
     <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -3508,13 +3502,13 @@
     </row>
     <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -3525,13 +3519,13 @@
     </row>
     <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -3542,21 +3536,21 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -3564,50 +3558,50 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>26</v>
@@ -3615,33 +3609,33 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>11</v>
@@ -3649,16 +3643,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>54</v>
@@ -3666,16 +3660,16 @@
     </row>
     <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>11</v>
@@ -3683,16 +3677,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>11</v>
@@ -3700,16 +3694,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>11</v>
@@ -3717,84 +3711,84 @@
     </row>
     <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>11</v>
@@ -3802,84 +3796,84 @@
     </row>
     <row r="119" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>11</v>
@@ -3887,80 +3881,80 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>11</v>
@@ -3969,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>43</v>
@@ -3977,7 +3971,7 @@
     </row>
     <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>11</v>
@@ -3986,15 +3980,15 @@
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>11</v>
@@ -4003,15 +3997,15 @@
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>11</v>
@@ -4020,15 +4014,15 @@
         <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>11</v>
@@ -4037,15 +4031,15 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>11</v>
@@ -4054,15 +4048,15 @@
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>11</v>
@@ -4071,15 +4065,15 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>11</v>
@@ -4088,15 +4082,15 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>11</v>
@@ -4105,15 +4099,15 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>11</v>
@@ -4122,15 +4116,15 @@
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>11</v>
@@ -4139,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>50</v>
@@ -4147,7 +4141,7 @@
     </row>
     <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>11</v>
@@ -4156,15 +4150,15 @@
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>11</v>
@@ -4173,7 +4167,7 @@
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>58</v>
@@ -4181,7 +4175,7 @@
     </row>
     <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>11</v>
@@ -4190,7 +4184,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>50</v>
@@ -4198,7 +4192,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>11</v>
@@ -4207,7 +4201,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>31</v>
@@ -4215,7 +4209,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="5" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>11</v>
@@ -4224,15 +4218,15 @@
         <v>11</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="5" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>11</v>
@@ -4241,7 +4235,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>54</v>
@@ -4249,7 +4243,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>11</v>
@@ -4258,15 +4252,15 @@
         <v>11</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>11</v>
@@ -4275,10 +4269,10 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/Shinyapp/Data/Employmentsterling.xlsx
+++ b/Shinyapp/Data/Employmentsterling.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E43BA1-8F57-406F-82FB-5F3D284F77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{424B4F03-95FC-419B-9797-C1E60FD2DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="477">
   <si>
     <t/>
   </si>
@@ -254,6 +254,9 @@
     <t>±1,025</t>
   </si>
   <si>
+    <t>12,922</t>
+  </si>
+  <si>
     <t>±941</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
     <t>±3.2</t>
   </si>
   <si>
+    <t>2,574</t>
+  </si>
+  <si>
     <t>±543</t>
   </si>
   <si>
@@ -344,6 +350,9 @@
     <t>Civilian employed population 16 years and over</t>
   </si>
   <si>
+    <t>Management, business, science, and arts occupations</t>
+  </si>
+  <si>
     <t>6,380</t>
   </si>
   <si>
@@ -356,6 +365,9 @@
     <t>±3.1</t>
   </si>
   <si>
+    <t>Service occupations</t>
+  </si>
+  <si>
     <t>4,122</t>
   </si>
   <si>
@@ -368,6 +380,9 @@
     <t>±2.8</t>
   </si>
   <si>
+    <t>Sales and office occupations</t>
+  </si>
+  <si>
     <t>3,451</t>
   </si>
   <si>
@@ -377,6 +392,9 @@
     <t>19.8%</t>
   </si>
   <si>
+    <t>Natural resources, construction, and maintenance occupations</t>
+  </si>
+  <si>
     <t>1,898</t>
   </si>
   <si>
@@ -386,6 +404,9 @@
     <t>10.9%</t>
   </si>
   <si>
+    <t>Production, transportation, and material moving occupations</t>
+  </si>
+  <si>
     <t>1,591</t>
   </si>
   <si>
@@ -1428,21 +1449,6 @@
   </si>
   <si>
     <t>Drove alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management, business, science, and arts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales and office </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural resources, construction, and maintenance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production, transportation, and material moving </t>
   </si>
 </sst>
 </file>
@@ -1866,10 +1872,10 @@
   <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2224,115 +2230,115 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B23" s="1">
-        <v>12922</v>
+        <v>476</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2574</v>
+        <v>475</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -2343,12 +2349,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -2365,97 +2371,97 @@
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
-        <v>471</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
-        <v>472</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
-        <v>473</v>
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
-        <v>474</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
@@ -2472,67 +2478,67 @@
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>36</v>
@@ -2540,16 +2546,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>43</v>
@@ -2557,33 +2563,33 @@
     </row>
     <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
@@ -2591,50 +2597,50 @@
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>16</v>
@@ -2642,16 +2648,16 @@
     </row>
     <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>21</v>
@@ -2659,16 +2665,16 @@
     </row>
     <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>31</v>
@@ -2676,29 +2682,29 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -2715,89 +2721,89 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>11</v>
@@ -2805,50 +2811,50 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>31</v>
@@ -2856,16 +2862,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>43</v>
@@ -2873,115 +2879,115 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -2992,13 +2998,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -3009,16 +3015,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>21</v>
@@ -3026,13 +3032,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -3043,30 +3049,30 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -3077,30 +3083,30 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -3111,30 +3117,30 @@
     </row>
     <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -3145,30 +3151,30 @@
     </row>
     <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
@@ -3179,16 +3185,16 @@
     </row>
     <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>26</v>
@@ -3196,16 +3202,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>11</v>
@@ -3213,84 +3219,84 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>21</v>
@@ -3298,50 +3304,50 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>50</v>
@@ -3349,47 +3355,47 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -3400,13 +3406,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
@@ -3417,13 +3423,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -3434,16 +3440,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>11</v>
@@ -3451,13 +3457,13 @@
     </row>
     <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -3468,13 +3474,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -3485,13 +3491,13 @@
     </row>
     <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -3502,13 +3508,13 @@
     </row>
     <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -3519,13 +3525,13 @@
     </row>
     <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -3536,21 +3542,21 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>11</v>
@@ -3558,50 +3564,50 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="5" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="5" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>26</v>
@@ -3609,33 +3615,33 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>11</v>
@@ -3643,16 +3649,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>54</v>
@@ -3660,16 +3666,16 @@
     </row>
     <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>11</v>
@@ -3677,16 +3683,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>11</v>
@@ -3694,16 +3700,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="5" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>11</v>
@@ -3711,84 +3717,84 @@
     </row>
     <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="6" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="6" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>11</v>
@@ -3796,84 +3802,84 @@
     </row>
     <row r="119" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="6" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>11</v>
@@ -3881,80 +3887,80 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>11</v>
@@ -3963,7 +3969,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>43</v>
@@ -3971,7 +3977,7 @@
     </row>
     <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>11</v>
@@ -3980,15 +3986,15 @@
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>11</v>
@@ -3997,15 +4003,15 @@
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>11</v>
@@ -4014,15 +4020,15 @@
         <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>11</v>
@@ -4031,15 +4037,15 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>11</v>
@@ -4048,15 +4054,15 @@
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>11</v>
@@ -4065,15 +4071,15 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="5" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>11</v>
@@ -4082,15 +4088,15 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="6" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>11</v>
@@ -4099,15 +4105,15 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>11</v>
@@ -4116,15 +4122,15 @@
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>11</v>
@@ -4133,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>50</v>
@@ -4141,7 +4147,7 @@
     </row>
     <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="5" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>11</v>
@@ -4150,15 +4156,15 @@
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>11</v>
@@ -4167,7 +4173,7 @@
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>58</v>
@@ -4175,7 +4181,7 @@
     </row>
     <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>11</v>
@@ -4184,7 +4190,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>50</v>
@@ -4192,7 +4198,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>11</v>
@@ -4201,7 +4207,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>31</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>11</v>
@@ -4218,15 +4224,15 @@
         <v>11</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>11</v>
@@ -4235,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>54</v>
@@ -4243,7 +4249,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>11</v>
@@ -4252,15 +4258,15 @@
         <v>11</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="4" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>11</v>
@@ -4269,10 +4275,10 @@
         <v>11</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
